--- a/py_visa_port/ac_komutlar.xlsx
+++ b/py_visa_port/ac_komutlar.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t>VOLT:AC\s220\n</t>
   </si>
@@ -154,13 +154,103 @@
   </si>
   <si>
     <t>CURR:STAT:L1 10</t>
+  </si>
+  <si>
+    <t>CR MODU</t>
+  </si>
+  <si>
+    <t>MODE CVH</t>
+  </si>
+  <si>
+    <t>CV MODU</t>
+  </si>
+  <si>
+    <t>VOLT:L1 2</t>
+  </si>
+  <si>
+    <t>CV MOD VOLTAJI 2v</t>
+  </si>
+  <si>
+    <t>MODE CCDH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DYNC MODU </t>
+  </si>
+  <si>
+    <t>CURR:DYN:L1 10</t>
+  </si>
+  <si>
+    <t>DYNC L1 10A</t>
+  </si>
+  <si>
+    <t>CURR:DYN:T1 1</t>
+  </si>
+  <si>
+    <t>DYNC MODU T1 ZAMAN 1 SANİYE</t>
+  </si>
+  <si>
+    <t>CURR:DYN:T1 1ms</t>
+  </si>
+  <si>
+    <t>DYNC MODU T1 ZAMAN 1 MİLİSANİYE</t>
+  </si>
+  <si>
+    <t>batload.write("LOAD OFF")</t>
+  </si>
+  <si>
+    <t>batload.write("CONF:PARA:MODE MASTER")</t>
+  </si>
+  <si>
+    <t>batload.write("CONF:PARA:INIT ON")</t>
+  </si>
+  <si>
+    <t>batload.write("MODE CRL")</t>
+  </si>
+  <si>
+    <t>batload.write("CURR:STAT:L2 1")</t>
+  </si>
+  <si>
+    <t>batload.write("LOAD ON")</t>
+  </si>
+  <si>
+    <t>CHAN MODU</t>
+  </si>
+  <si>
+    <t>CHAN 1</t>
+  </si>
+  <si>
+    <t>1.HÜCREYİ SEÇER</t>
+  </si>
+  <si>
+    <t>CHAN 3</t>
+  </si>
+  <si>
+    <t>2.HÜCREYİ SEÇER</t>
+  </si>
+  <si>
+    <t>CHAN 5</t>
+  </si>
+  <si>
+    <t>3.HÜCREYİ SEÇER</t>
+  </si>
+  <si>
+    <t>CHAN 7</t>
+  </si>
+  <si>
+    <t>4.HÜCRE SECER</t>
+  </si>
+  <si>
+    <t>CHAN 9</t>
+  </si>
+  <si>
+    <t>5.HÜCREYİ SECER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,13 +258,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -186,13 +296,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -492,16 +607,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -628,64 +743,207 @@
         <v>28</v>
       </c>
     </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
+      <c r="A19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
         <v>31</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E26" t="s">
         <v>32</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>37</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D27" t="s">
         <v>33</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E27" t="s">
         <v>35</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>40</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B29" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>42</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>45</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B31" t="s">
         <v>44</v>
       </c>
     </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A28" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
